--- a/biology/Botanique/Acacia_rigens/Acacia_rigens.xlsx
+++ b/biology/Botanique/Acacia_rigens/Acacia_rigens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia rigens est un arbuste endémique de l'Australie, atteignant jusqu'à 6 m de hauteur.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes poussent généralement à une hauteur de 1 à 6 m et présentent des phyllodes rigides, cylindriques, d'une longueur comprise entre 3 et 13 cm. Les capitules jaune vif apparaissent en groupes allant jusqu'à quatre à l'aisselle des phyllodes. Les inflorescences simples ont des capitules résineux et sphériques d'un diamètre de  4 à 7 mm et contiennent 20 à 30 fleurs pour 5 groupes mères de couleur jaune vif qui apparaissent entre juillet et décembre dans l'aire de répartition naturelle de l'espèce, suivi de gousses torsadées ou enroulées de  4 à 10 cm de long et de 2 à 3 mm de large[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes poussent généralement à une hauteur de 1 à 6 m et présentent des phyllodes rigides, cylindriques, d'une longueur comprise entre 3 et 13 cm. Les capitules jaune vif apparaissent en groupes allant jusqu'à quatre à l'aisselle des phyllodes. Les inflorescences simples ont des capitules résineux et sphériques d'un diamètre de  4 à 7 mm et contiennent 20 à 30 fleurs pour 5 groupes mères de couleur jaune vif qui apparaissent entre juillet et décembre dans l'aire de répartition naturelle de l'espèce, suivi de gousses torsadées ou enroulées de  4 à 10 cm de long et de 2 à 3 mm de large,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1832 par le botaniste  Allan Cunningham[3]. Elle ressemble à « Acacia havilandiorum » mais possède des phyllodes plus longs et 4 groupes-mères de fleurs. On pense que l'épithète spécifique rigens est une référence à la rigidité des phyllodes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite pour la première fois en 1832 par le botaniste  Allan Cunningham. Elle ressemble à « Acacia havilandiorum » mais possède des phyllodes plus longs et 4 groupes-mères de fleurs. On pense que l'épithète spécifique rigens est une référence à la rigidité des phyllodes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente sur les terres rouges, les sols sableux ou schisteux des Mallee Woodlands and Shrublands (en) et les forêts du sud d'Australie-Occidentale, Australie-Méridionale, Victoria, Nouvelle-Galles du Sud et Queensland[2],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente sur les terres rouges, les sols sableux ou schisteux des Mallee Woodlands and Shrublands (en) et les forêts du sud d'Australie-Occidentale, Australie-Méridionale, Victoria, Nouvelle-Galles du Sud et Queensland,.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a une croissance rapide, elle est à la fois tolérante au gel et à la sécheresse, nécessitant rarement un arrosage après l'établissement. La plante s'adapte à la plupart des sols et convient le mieux à une position en plein soleil ou à l'ombre légère[5].
-Les larves du papillon  double-spotted lineblue se nourrissent de cette espèce[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a une croissance rapide, elle est à la fois tolérante au gel et à la sécheresse, nécessitant rarement un arrosage après l'établissement. La plante s'adapte à la plupart des sols et convient le mieux à une position en plein soleil ou à l'ombre légère.
+Les larves du papillon  double-spotted lineblue se nourrissent de cette espèce.
 </t>
         </is>
       </c>
